--- a/data/trans_camb/P34_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-4,19</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 8,98</t>
+          <t>-10,7; 7,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 6,75</t>
+          <t>-12,67; 6,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 4,92</t>
+          <t>-16,21; 2,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 5,54</t>
+          <t>-7,01; 6,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,91</t>
+          <t>-6,1; 8,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,36</t>
+          <t>-8,35; 5,87</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 4,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 5,28</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 1,69</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>-14,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-34,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,05%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>-10,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,12%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-23,07%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 55,17</t>
+          <t>-41,22; 51,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 40,76</t>
+          <t>-48,82; 36,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 33,47</t>
+          <t>-61,9; 14,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 35,77</t>
+          <t>-37,47; 59,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 30,05</t>
+          <t>-32,39; 69,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 26,83</t>
+          <t>-44,02; 45,62</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-31,18; 31,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,04; 35,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-48,25; 10,91</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>-2,8</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 11,58</t>
+          <t>-10,73; 10,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 14,52</t>
+          <t>-7,32; 15,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 9,41</t>
+          <t>-10,75; 10,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 10,82</t>
+          <t>-8,93; 8,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 8,53</t>
+          <t>-9,13; 8,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 10,58</t>
+          <t>-11,32; 5,54</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 6,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 8,03</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 5,15</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>-1,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>-6,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>-14,9%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-6,96%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 58,81</t>
+          <t>-39,69; 59,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 73,96</t>
+          <t>-29,04; 87,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 62,55</t>
+          <t>-40,21; 61,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 72,76</t>
+          <t>-37,2; 60,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 47,74</t>
+          <t>-40,61; 54,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 56,69</t>
+          <t>-47,84; 39,2</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-29,92; 39,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-27,59; 47,2</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-37,54; 29,53</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>26,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,44</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 15,66</t>
+          <t>-18,23; 20,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 13,39</t>
+          <t>-19,0; 19,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 17,04</t>
+          <t>-3,37; 66,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 15,71</t>
+          <t>-21,64; 23,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 11,76</t>
+          <t>-18,47; 25,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 10,04</t>
+          <t>-24,87; 19,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 17,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-16,59; 16,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 38,42</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>-12,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>205,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,14%</t>
+          <t>-6,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>54,57%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,53; 166,92</t>
+          <t>-89,89; 552,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,34; 152,33</t>
+          <t>-93,03; 450,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,72; 83,33</t>
+          <t>-40,26; 2371,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 81,87</t>
+          <t>-49,94; 106,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 67,01</t>
+          <t>-43,68; 119,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 59,83</t>
+          <t>-55,92; 91,53</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-52,36; 118,09</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-51,57; 118,38</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-21,22; 284,63</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,07</t>
+          <t>-6,96; 6,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,45</t>
+          <t>-7,79; 6,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,82</t>
+          <t>-7,69; 8,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,69</t>
+          <t>-5,39; 5,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,61</t>
+          <t>-5,21; 5,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,96</t>
+          <t>-7,77; 3,25</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 4,03</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 4,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 3,31</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>-4,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>-2,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>-11,42%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 38,41</t>
+          <t>-29,9; 35,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 39,68</t>
+          <t>-32,27; 36,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 27,78</t>
+          <t>-32,21; 45,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 33,44</t>
+          <t>-25,45; 35,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 24,49</t>
+          <t>-24,44; 34,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 27,08</t>
+          <t>-36,28; 22,25</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-20,81; 23,32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 26,56</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-28,43; 18,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
